--- a/Timesheets/kjohnson2.xlsx
+++ b/Timesheets/kjohnson2.xlsx
@@ -17,18 +17,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Senior Project - Spring / Summer 2015</t>
   </si>
   <si>
-    <t>For week ending ____________________________</t>
-  </si>
-  <si>
-    <t>Name_______________________________________________________</t>
-  </si>
-  <si>
-    <t>Project ______________________________________________________</t>
+    <t>For week ending 5/3/15</t>
+  </si>
+  <si>
+    <t>Name: Kyle Johnson</t>
+  </si>
+  <si>
+    <t>Project: Career Services</t>
   </si>
   <si>
     <t>Date</t>
@@ -58,7 +58,10 @@
     <t>Class meeting, team meeting/check in</t>
   </si>
   <si>
-    <t>Time sheet submission</t>
+    <t>10:45pm-11:15pm</t>
+  </si>
+  <si>
+    <t>Time sheet receiving, compilation, and submission</t>
   </si>
 </sst>
 </file>
@@ -224,13 +227,13 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.86224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7091836734694"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.5714285714286"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5765306122449"/>
@@ -308,12 +311,14 @@
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" s="6" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Timesheets/kjohnson2.xlsx
+++ b/Timesheets/kjohnson2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Senior Project - Spring / Summer 2015</t>
   </si>
@@ -62,6 +62,30 @@
   </si>
   <si>
     <t>Time sheet receiving, compilation, and submission</t>
+  </si>
+  <si>
+    <t>04/29/2015 Wed</t>
+  </si>
+  <si>
+    <t>1:00pm-2:00pm</t>
+  </si>
+  <si>
+    <t>Team meeting</t>
+  </si>
+  <si>
+    <t>3:00pm-6:30pm</t>
+  </si>
+  <si>
+    <t>Email Shannon, GUI Design Mockup</t>
+  </si>
+  <si>
+    <t>04/30/2015 Thu</t>
+  </si>
+  <si>
+    <t>4:00pm-10:30pm</t>
+  </si>
+  <si>
+    <t>Work on GUI</t>
   </si>
 </sst>
 </file>
@@ -227,8 +251,8 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -322,22 +346,44 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="6"/>

--- a/Timesheets/kjohnson2.xlsx
+++ b/Timesheets/kjohnson2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Senior Project - Spring / Summer 2015</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>Work on GUI</t>
+  </si>
+  <si>
+    <t>05/01/2015 Fri</t>
+  </si>
+  <si>
+    <t>12:00pm-2:30pm</t>
+  </si>
+  <si>
+    <t>Total 16</t>
   </si>
 </sst>
 </file>
@@ -252,7 +261,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -386,15 +395,25 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="E13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
